--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64073.92757775478</v>
+        <v>12642170.96666584</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64073.92757775478</v>
+        <v>12642170.96666584</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>197154.1172933663</v>
+        <v>22761841.26149242</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>197154.1172933663</v>
+        <v>22761841.26149242</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1606208535.645801</v>
+        <v>37010520.05492953</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18466.47823264961</v>
+        <v>879687.0961428761</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35729.01829217505</v>
+        <v>1589631.136483069</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53060.10799199606</v>
+        <v>2299575.176823261</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>69898.69500286612</v>
+        <v>3009310.377169025</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86737.2820137362</v>
+        <v>3719045.577514789</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>103575.8690246057</v>
+        <v>4428780.777860644</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>120220.2630739618</v>
+        <v>5377542.056601173</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>136631.0409617017</v>
+        <v>6279813.719180085</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>153236.0118109556</v>
+        <v>6943059.303364238</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>170074.5988218256</v>
+        <v>7652794.503709998</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>186913.1858326957</v>
+        <v>8362529.704055863</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>203751.772843565</v>
+        <v>9072264.904401697</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>220590.3598544337</v>
+        <v>9782000.104747608</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>240092.7313456894</v>
+        <v>10186805.8537809</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>259108.5403455575</v>
+        <v>10373725.90180832</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>132</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,13 +27150,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>295</v>
